--- a/data/trusted/base_predita.xlsx
+++ b/data/trusted/base_predita.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlueShift\Documents\Raphael\DataScience_Sports\Projeto_Sports_Infnet\data\trusted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E26CE62-E0CC-4E04-A348-AD9051F214BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F64AED-73ED-4762-8BB0-08608DFC4C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,27 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AK$381</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AL$381</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="62">
   <si>
     <t>fixture.id</t>
   </si>
@@ -198,6 +211,18 @@
   <si>
     <t>Fluminense</t>
   </si>
+  <si>
+    <t>Acertou</t>
+  </si>
+  <si>
+    <t>qtd</t>
+  </si>
+  <si>
+    <t>acertos</t>
+  </si>
+  <si>
+    <t>erros</t>
+  </si>
 </sst>
 </file>
 
@@ -234,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -257,17 +282,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,55 +609,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK381"/>
+  <dimension ref="A1:AO381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI311" sqref="AI311"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="Z1" sqref="Z1"/>
+      <selection pane="bottomLeft" activeCell="AK376" sqref="AK376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" customWidth="1"/>
-    <col min="19" max="19" width="22.85546875" customWidth="1"/>
-    <col min="20" max="20" width="19.85546875" customWidth="1"/>
-    <col min="21" max="21" width="19.5703125" customWidth="1"/>
-    <col min="22" max="22" width="21.42578125" customWidth="1"/>
-    <col min="23" max="23" width="20.28515625" customWidth="1"/>
-    <col min="24" max="24" width="19.140625" customWidth="1"/>
-    <col min="25" max="25" width="17.7109375" customWidth="1"/>
-    <col min="26" max="26" width="22.85546875" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" customWidth="1"/>
-    <col min="28" max="28" width="15.42578125" customWidth="1"/>
-    <col min="29" max="29" width="20.85546875" customWidth="1"/>
-    <col min="30" max="30" width="22.28515625" customWidth="1"/>
-    <col min="31" max="31" width="19.28515625" customWidth="1"/>
-    <col min="32" max="32" width="19" customWidth="1"/>
-    <col min="33" max="33" width="20.7109375" customWidth="1"/>
-    <col min="34" max="34" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="16" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5703125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="21.42578125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="20.28515625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="19.140625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="17.7109375" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="22.85546875" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="20.85546875" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="22.28515625" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="19.28515625" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="19" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="19" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.5703125" customWidth="1"/>
+    <col min="36" max="36" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="19" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,8 +771,11 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1005649</v>
       </c>
@@ -837,8 +881,15 @@
       <c r="AI2" t="s">
         <v>37</v>
       </c>
+      <c r="AN2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO2">
+        <f>COUNTA(AK:AK)-1</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1005650</v>
       </c>
@@ -944,8 +995,15 @@
       <c r="AI3" t="s">
         <v>39</v>
       </c>
+      <c r="AN3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO3">
+        <f>SUM(AL:AL)</f>
+        <v>81</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1005651</v>
       </c>
@@ -1051,8 +1109,15 @@
       <c r="AI4" t="s">
         <v>41</v>
       </c>
+      <c r="AN4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO4">
+        <f>AO2-AO3</f>
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1005652</v>
       </c>
@@ -1159,7 +1224,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005653</v>
       </c>
@@ -1266,7 +1331,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1005654</v>
       </c>
@@ -1373,7 +1438,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1005655</v>
       </c>
@@ -1480,7 +1545,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1005656</v>
       </c>
@@ -1587,7 +1652,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1005657</v>
       </c>
@@ -1694,7 +1759,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1005658</v>
       </c>
@@ -1801,7 +1866,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1005659</v>
       </c>
@@ -1908,7 +1973,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1005660</v>
       </c>
@@ -2015,7 +2080,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1005661</v>
       </c>
@@ -2122,7 +2187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1005662</v>
       </c>
@@ -2229,7 +2294,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1005663</v>
       </c>
@@ -29728,7 +29793,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="273" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1005920</v>
       </c>
@@ -29835,7 +29900,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="274" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1005921</v>
       </c>
@@ -29942,7 +30007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="275" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1005922</v>
       </c>
@@ -30049,7 +30114,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="276" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1005923</v>
       </c>
@@ -30156,7 +30221,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1005924</v>
       </c>
@@ -30263,7 +30328,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="278" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1005925</v>
       </c>
@@ -30370,7 +30435,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="279" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1005926</v>
       </c>
@@ -30477,7 +30542,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="280" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1005927</v>
       </c>
@@ -30584,7 +30649,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="281" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1005928</v>
       </c>
@@ -30691,7 +30756,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="282" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1005929</v>
       </c>
@@ -30797,8 +30862,18 @@
       <c r="AI282" t="s">
         <v>57</v>
       </c>
+      <c r="AJ282">
+        <v>1</v>
+      </c>
+      <c r="AK282" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL282">
+        <f t="shared" ref="AL259:AL322" si="0">IF(AK282=AI282,1,0)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="283" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1005930</v>
       </c>
@@ -30904,8 +30979,18 @@
       <c r="AI283" t="s">
         <v>54</v>
       </c>
+      <c r="AJ283">
+        <v>2</v>
+      </c>
+      <c r="AK283" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL283">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="284" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1005931</v>
       </c>
@@ -31011,8 +31096,18 @@
       <c r="AI284" t="s">
         <v>41</v>
       </c>
+      <c r="AJ284">
+        <v>1</v>
+      </c>
+      <c r="AK284" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL284">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="285" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1005932</v>
       </c>
@@ -31118,8 +31213,18 @@
       <c r="AI285" t="s">
         <v>50</v>
       </c>
+      <c r="AJ285">
+        <v>1</v>
+      </c>
+      <c r="AK285" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL285">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="286" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1005933</v>
       </c>
@@ -31225,8 +31330,18 @@
       <c r="AI286" t="s">
         <v>47</v>
       </c>
+      <c r="AJ286">
+        <v>2</v>
+      </c>
+      <c r="AK286" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL286">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="287" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1005934</v>
       </c>
@@ -31332,8 +31447,18 @@
       <c r="AI287" t="s">
         <v>44</v>
       </c>
+      <c r="AJ287">
+        <v>1</v>
+      </c>
+      <c r="AK287" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL287">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="288" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1005935</v>
       </c>
@@ -31439,8 +31564,18 @@
       <c r="AI288" t="s">
         <v>49</v>
       </c>
+      <c r="AJ288">
+        <v>1</v>
+      </c>
+      <c r="AK288" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL288">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="289" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1005936</v>
       </c>
@@ -31546,8 +31681,18 @@
       <c r="AI289" t="s">
         <v>51</v>
       </c>
+      <c r="AJ289">
+        <v>1</v>
+      </c>
+      <c r="AK289" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL289">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="290" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1005937</v>
       </c>
@@ -31647,14 +31792,24 @@
       <c r="AG290">
         <v>0.67</v>
       </c>
-      <c r="AH290">
-        <v>0</v>
-      </c>
-      <c r="AI290" t="s">
+      <c r="AH290" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI290" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="AJ290" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK290" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL290" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="291" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1005938</v>
       </c>
@@ -31760,8 +31915,18 @@
       <c r="AI291" t="s">
         <v>43</v>
       </c>
+      <c r="AJ291">
+        <v>2</v>
+      </c>
+      <c r="AK291" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL291">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="292" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1005939</v>
       </c>
@@ -31867,8 +32032,18 @@
       <c r="AI292" t="s">
         <v>37</v>
       </c>
+      <c r="AJ292">
+        <v>1</v>
+      </c>
+      <c r="AK292" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL292">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="293" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1005940</v>
       </c>
@@ -31974,8 +32149,18 @@
       <c r="AI293" t="s">
         <v>42</v>
       </c>
+      <c r="AJ293">
+        <v>2</v>
+      </c>
+      <c r="AK293" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL293">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="294" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1005941</v>
       </c>
@@ -32081,8 +32266,18 @@
       <c r="AI294" t="s">
         <v>41</v>
       </c>
+      <c r="AJ294">
+        <v>1</v>
+      </c>
+      <c r="AK294" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL294">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="295" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1005942</v>
       </c>
@@ -32188,8 +32383,18 @@
       <c r="AI295" t="s">
         <v>55</v>
       </c>
+      <c r="AJ295">
+        <v>0</v>
+      </c>
+      <c r="AK295" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL295">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="296" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1005943</v>
       </c>
@@ -32289,14 +32494,24 @@
       <c r="AG296">
         <v>0.9</v>
       </c>
-      <c r="AH296">
-        <v>0</v>
-      </c>
-      <c r="AI296" t="s">
+      <c r="AH296" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI296" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="AJ296" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK296" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL296" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="297" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1005944</v>
       </c>
@@ -32402,8 +32617,18 @@
       <c r="AI297" t="s">
         <v>47</v>
       </c>
+      <c r="AJ297">
+        <v>1</v>
+      </c>
+      <c r="AK297" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL297">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="298" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1005945</v>
       </c>
@@ -32509,8 +32734,18 @@
       <c r="AI298" t="s">
         <v>38</v>
       </c>
+      <c r="AJ298">
+        <v>2</v>
+      </c>
+      <c r="AK298" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL298">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="299" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1005946</v>
       </c>
@@ -32616,8 +32851,18 @@
       <c r="AI299" t="s">
         <v>55</v>
       </c>
+      <c r="AJ299">
+        <v>0</v>
+      </c>
+      <c r="AK299" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL299">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="300" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1005947</v>
       </c>
@@ -32723,8 +32968,18 @@
       <c r="AI300" t="s">
         <v>44</v>
       </c>
+      <c r="AJ300">
+        <v>2</v>
+      </c>
+      <c r="AK300" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL300">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="301" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1005948</v>
       </c>
@@ -32830,8 +33085,18 @@
       <c r="AI301" t="s">
         <v>49</v>
       </c>
+      <c r="AJ301">
+        <v>2</v>
+      </c>
+      <c r="AK301" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL301">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="302" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1005949</v>
       </c>
@@ -32937,8 +33202,18 @@
       <c r="AI302" t="s">
         <v>50</v>
       </c>
+      <c r="AJ302">
+        <v>2</v>
+      </c>
+      <c r="AK302" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL302">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="303" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1005950</v>
       </c>
@@ -33038,14 +33313,24 @@
       <c r="AG303">
         <v>1.67</v>
       </c>
-      <c r="AH303">
-        <v>2</v>
-      </c>
-      <c r="AI303" t="s">
+      <c r="AH303" s="3">
+        <v>2</v>
+      </c>
+      <c r="AI303" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AJ303" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK303" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL303" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="304" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1005951</v>
       </c>
@@ -33151,8 +33436,18 @@
       <c r="AI304" t="s">
         <v>40</v>
       </c>
+      <c r="AJ304">
+        <v>1</v>
+      </c>
+      <c r="AK304" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL304">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="305" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1005952</v>
       </c>
@@ -33258,8 +33553,18 @@
       <c r="AI305" t="s">
         <v>43</v>
       </c>
+      <c r="AJ305">
+        <v>1</v>
+      </c>
+      <c r="AK305" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL305">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="306" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1005953</v>
       </c>
@@ -33371,8 +33676,12 @@
       <c r="AK306" t="s">
         <v>45</v>
       </c>
+      <c r="AL306">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="307" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1005954</v>
       </c>
@@ -33484,8 +33793,12 @@
       <c r="AK307" t="s">
         <v>47</v>
       </c>
+      <c r="AL307">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="308" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1005955</v>
       </c>
@@ -33585,7 +33898,7 @@
       <c r="AG308">
         <v>0.3</v>
       </c>
-      <c r="AH308">
+      <c r="AH308" s="3">
         <v>0</v>
       </c>
       <c r="AI308" s="3" t="s">
@@ -33597,8 +33910,12 @@
       <c r="AK308" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="AL308" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="309" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1005956</v>
       </c>
@@ -33710,8 +34027,12 @@
       <c r="AK309" t="s">
         <v>49</v>
       </c>
+      <c r="AL309">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="310" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1005957</v>
       </c>
@@ -33823,8 +34144,12 @@
       <c r="AK310" t="s">
         <v>46</v>
       </c>
+      <c r="AL310">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="311" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1005958</v>
       </c>
@@ -33936,8 +34261,12 @@
       <c r="AK311" t="s">
         <v>48</v>
       </c>
+      <c r="AL311">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="312" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1005959</v>
       </c>
@@ -34049,8 +34378,12 @@
       <c r="AK312" t="s">
         <v>57</v>
       </c>
+      <c r="AL312">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="313" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1005960</v>
       </c>
@@ -34162,8 +34495,12 @@
       <c r="AK313" t="s">
         <v>48</v>
       </c>
+      <c r="AL313">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="314" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1005961</v>
       </c>
@@ -34275,8 +34612,12 @@
       <c r="AK314" t="s">
         <v>41</v>
       </c>
+      <c r="AL314">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="315" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1005962</v>
       </c>
@@ -34376,20 +34717,24 @@
       <c r="AG315">
         <v>0.45</v>
       </c>
-      <c r="AH315">
+      <c r="AH315" s="3">
         <v>0</v>
       </c>
       <c r="AI315" s="3" t="s">
         <v>55</v>
       </c>
       <c r="AJ315" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK315" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="AL315" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1005963</v>
       </c>
@@ -34501,8 +34846,12 @@
       <c r="AK316" t="s">
         <v>45</v>
       </c>
+      <c r="AL316">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="317" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1005964</v>
       </c>
@@ -34605,17 +34954,21 @@
       <c r="AH317">
         <v>2</v>
       </c>
-      <c r="AI317" s="3" t="s">
+      <c r="AI317" t="s">
         <v>54</v>
       </c>
-      <c r="AJ317" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK317" s="3" t="s">
-        <v>44</v>
+      <c r="AJ317">
+        <v>2</v>
+      </c>
+      <c r="AK317" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL317">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1005965</v>
       </c>
@@ -34727,8 +35080,12 @@
       <c r="AK318" t="s">
         <v>49</v>
       </c>
+      <c r="AL318">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="319" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1005966</v>
       </c>
@@ -34840,8 +35197,12 @@
       <c r="AK319" t="s">
         <v>52</v>
       </c>
+      <c r="AL319">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="320" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1005967</v>
       </c>
@@ -34953,8 +35314,12 @@
       <c r="AK320" t="s">
         <v>37</v>
       </c>
+      <c r="AL320">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="321" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1005968</v>
       </c>
@@ -35054,7 +35419,7 @@
       <c r="AG321">
         <v>1</v>
       </c>
-      <c r="AH321">
+      <c r="AH321" s="3">
         <v>0</v>
       </c>
       <c r="AI321" s="3" t="s">
@@ -35066,8 +35431,12 @@
       <c r="AK321" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="AL321" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="322" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1005969</v>
       </c>
@@ -35179,8 +35548,12 @@
       <c r="AK322" t="s">
         <v>37</v>
       </c>
+      <c r="AL322">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="323" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1005970</v>
       </c>
@@ -35292,8 +35665,12 @@
       <c r="AK323" t="s">
         <v>49</v>
       </c>
+      <c r="AL323">
+        <f t="shared" ref="AL323:AL381" si="1">IF(AK323=AI323,1,0)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="324" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1005971</v>
       </c>
@@ -35405,8 +35782,12 @@
       <c r="AK324" t="s">
         <v>40</v>
       </c>
+      <c r="AL324">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="325" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1005972</v>
       </c>
@@ -35506,7 +35887,7 @@
       <c r="AG325">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AH325">
+      <c r="AH325" s="3">
         <v>0</v>
       </c>
       <c r="AI325" s="3" t="s">
@@ -35518,8 +35899,12 @@
       <c r="AK325" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="AL325" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="326" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1005973</v>
       </c>
@@ -35631,8 +36016,12 @@
       <c r="AK326" t="s">
         <v>50</v>
       </c>
+      <c r="AL326">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="327" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1005974</v>
       </c>
@@ -35732,7 +36121,7 @@
       <c r="AG327">
         <v>0.67</v>
       </c>
-      <c r="AH327">
+      <c r="AH327" s="3">
         <v>0</v>
       </c>
       <c r="AI327" s="3" t="s">
@@ -35744,8 +36133,12 @@
       <c r="AK327" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="AL327" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="328" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1005975</v>
       </c>
@@ -35845,7 +36238,7 @@
       <c r="AG328">
         <v>0.51</v>
       </c>
-      <c r="AH328">
+      <c r="AH328" s="3">
         <v>0</v>
       </c>
       <c r="AI328" s="3" t="s">
@@ -35857,8 +36250,12 @@
       <c r="AK328" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="AL328" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="329" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1005976</v>
       </c>
@@ -35958,20 +36355,24 @@
       <c r="AG329">
         <v>0.62</v>
       </c>
-      <c r="AH329">
+      <c r="AH329" s="3">
         <v>0</v>
       </c>
       <c r="AI329" s="3" t="s">
         <v>55</v>
       </c>
       <c r="AJ329" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK329" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="AL329" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1005977</v>
       </c>
@@ -36083,8 +36484,12 @@
       <c r="AK330" t="s">
         <v>42</v>
       </c>
+      <c r="AL330">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="331" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1005978</v>
       </c>
@@ -36196,8 +36601,12 @@
       <c r="AK331" t="s">
         <v>38</v>
       </c>
+      <c r="AL331">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="332" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1005979</v>
       </c>
@@ -36297,20 +36706,24 @@
       <c r="AG332">
         <v>1.38</v>
       </c>
-      <c r="AH332">
-        <v>0</v>
-      </c>
-      <c r="AI332" t="s">
+      <c r="AH332" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI332" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AJ332">
-        <v>1</v>
-      </c>
-      <c r="AK332" t="s">
+      <c r="AJ332" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK332" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="AL332" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="333" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1005980</v>
       </c>
@@ -36417,13 +36830,17 @@
         <v>48</v>
       </c>
       <c r="AJ333">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK333" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="AL333">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1005981</v>
       </c>
@@ -36535,8 +36952,12 @@
       <c r="AK334" t="s">
         <v>41</v>
       </c>
+      <c r="AL334">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="335" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1005982</v>
       </c>
@@ -36636,20 +37057,24 @@
       <c r="AG335">
         <v>1.2</v>
       </c>
-      <c r="AH335">
-        <v>0</v>
-      </c>
-      <c r="AI335" t="s">
+      <c r="AH335" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI335" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AJ335">
-        <v>1</v>
-      </c>
-      <c r="AK335" t="s">
+      <c r="AJ335" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK335" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AL335" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="336" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1005983</v>
       </c>
@@ -36756,13 +37181,17 @@
         <v>55</v>
       </c>
       <c r="AJ336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK336" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="AL336">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1005984</v>
       </c>
@@ -36874,8 +37303,12 @@
       <c r="AK337" t="s">
         <v>47</v>
       </c>
+      <c r="AL337">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="338" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1005985</v>
       </c>
@@ -36987,8 +37420,12 @@
       <c r="AK338" t="s">
         <v>43</v>
       </c>
+      <c r="AL338">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="339" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1005986</v>
       </c>
@@ -37100,8 +37537,12 @@
       <c r="AK339" t="s">
         <v>38</v>
       </c>
+      <c r="AL339">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="340" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1005987</v>
       </c>
@@ -37208,13 +37649,17 @@
         <v>55</v>
       </c>
       <c r="AJ340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK340" t="s">
-        <v>46</v>
+        <v>55</v>
+      </c>
+      <c r="AL340">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1005988</v>
       </c>
@@ -37326,8 +37771,12 @@
       <c r="AK341" t="s">
         <v>42</v>
       </c>
+      <c r="AL341">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="342" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1005989</v>
       </c>
@@ -37439,8 +37888,12 @@
       <c r="AK342" t="s">
         <v>57</v>
       </c>
+      <c r="AL342">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="343" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1005990</v>
       </c>
@@ -37540,20 +37993,24 @@
       <c r="AG343">
         <v>0.26</v>
       </c>
-      <c r="AH343">
-        <v>0</v>
-      </c>
-      <c r="AI343" t="s">
+      <c r="AH343" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI343" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AJ343">
-        <v>1</v>
-      </c>
-      <c r="AK343" t="s">
+      <c r="AJ343" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK343" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="AL343" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="344" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1005991</v>
       </c>
@@ -37653,20 +38110,24 @@
       <c r="AG344">
         <v>0.11</v>
       </c>
-      <c r="AH344">
-        <v>0</v>
-      </c>
-      <c r="AI344" t="s">
+      <c r="AH344" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI344" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AJ344">
-        <v>1</v>
-      </c>
-      <c r="AK344" t="s">
-        <v>40</v>
+      <c r="AJ344" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK344" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL344" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1005992</v>
       </c>
@@ -37778,8 +38239,12 @@
       <c r="AK345" t="s">
         <v>46</v>
       </c>
+      <c r="AL345">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="346" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1005993</v>
       </c>
@@ -37891,8 +38356,12 @@
       <c r="AK346" t="s">
         <v>44</v>
       </c>
+      <c r="AL346">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="347" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1005994</v>
       </c>
@@ -38004,8 +38473,12 @@
       <c r="AK347" t="s">
         <v>47</v>
       </c>
+      <c r="AL347">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="348" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1005995</v>
       </c>
@@ -38117,8 +38590,12 @@
       <c r="AK348" t="s">
         <v>54</v>
       </c>
+      <c r="AL348">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="349" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1005996</v>
       </c>
@@ -38225,13 +38702,17 @@
         <v>55</v>
       </c>
       <c r="AJ349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK349" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="AL349">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1005997</v>
       </c>
@@ -38331,20 +38812,24 @@
       <c r="AG350">
         <v>0.84</v>
       </c>
-      <c r="AH350">
-        <v>0</v>
-      </c>
-      <c r="AI350" t="s">
+      <c r="AH350" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI350" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AJ350">
-        <v>1</v>
-      </c>
-      <c r="AK350" t="s">
+      <c r="AJ350" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK350" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="AL350" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="351" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1005998</v>
       </c>
@@ -38456,8 +38941,12 @@
       <c r="AK351" t="s">
         <v>37</v>
       </c>
+      <c r="AL351">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="352" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1005999</v>
       </c>
@@ -38569,8 +39058,12 @@
       <c r="AK352" t="s">
         <v>47</v>
       </c>
+      <c r="AL352">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="353" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1006000</v>
       </c>
@@ -38677,13 +39170,17 @@
         <v>43</v>
       </c>
       <c r="AJ353">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK353" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="AL353">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1006001</v>
       </c>
@@ -38795,8 +39292,12 @@
       <c r="AK354" t="s">
         <v>41</v>
       </c>
+      <c r="AL354">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="355" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1006002</v>
       </c>
@@ -38903,13 +39404,17 @@
         <v>57</v>
       </c>
       <c r="AJ355">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK355" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="AL355">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1006003</v>
       </c>
@@ -39021,8 +39526,12 @@
       <c r="AK356" t="s">
         <v>53</v>
       </c>
+      <c r="AL356">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="357" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1006004</v>
       </c>
@@ -39122,20 +39631,24 @@
       <c r="AG357">
         <v>1.1599999999999999</v>
       </c>
-      <c r="AH357">
-        <v>0</v>
-      </c>
-      <c r="AI357" t="s">
+      <c r="AH357" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI357" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AJ357">
-        <v>1</v>
-      </c>
-      <c r="AK357" t="s">
+      <c r="AJ357" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK357" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="AL357" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="358" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1006005</v>
       </c>
@@ -39247,8 +39760,12 @@
       <c r="AK358" t="s">
         <v>49</v>
       </c>
+      <c r="AL358">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="359" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1006006</v>
       </c>
@@ -39348,20 +39865,24 @@
       <c r="AG359">
         <v>2.15</v>
       </c>
-      <c r="AH359">
-        <v>0</v>
-      </c>
-      <c r="AI359" t="s">
+      <c r="AH359" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI359" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AJ359">
-        <v>1</v>
-      </c>
-      <c r="AK359" t="s">
+      <c r="AJ359" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK359" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="AL359" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="360" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1006007</v>
       </c>
@@ -39461,20 +39982,24 @@
       <c r="AG360">
         <v>1</v>
       </c>
-      <c r="AH360">
-        <v>2</v>
-      </c>
-      <c r="AI360" t="s">
+      <c r="AH360" s="3">
+        <v>2</v>
+      </c>
+      <c r="AI360" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AJ360">
-        <v>1</v>
-      </c>
-      <c r="AK360" t="s">
-        <v>46</v>
+      <c r="AJ360" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK360" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL360" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1006008</v>
       </c>
@@ -39586,8 +40111,12 @@
       <c r="AK361" t="s">
         <v>54</v>
       </c>
+      <c r="AL361">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="362" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1006009</v>
       </c>
@@ -39699,8 +40228,12 @@
       <c r="AK362" t="s">
         <v>37</v>
       </c>
+      <c r="AL362">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="363" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1006010</v>
       </c>
@@ -39800,20 +40333,24 @@
       <c r="AG363">
         <v>0.85</v>
       </c>
-      <c r="AH363">
-        <v>0</v>
-      </c>
-      <c r="AI363" t="s">
+      <c r="AH363" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI363" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AJ363">
-        <v>2</v>
-      </c>
-      <c r="AK363" t="s">
+      <c r="AJ363" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK363" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="AL363" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="364" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1006011</v>
       </c>
@@ -39925,8 +40462,12 @@
       <c r="AK364" t="s">
         <v>41</v>
       </c>
+      <c r="AL364">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="365" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1006012</v>
       </c>
@@ -40038,8 +40579,12 @@
       <c r="AK365" t="s">
         <v>54</v>
       </c>
+      <c r="AL365">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="366" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1006013</v>
       </c>
@@ -40151,8 +40696,12 @@
       <c r="AK366" t="s">
         <v>45</v>
       </c>
+      <c r="AL366">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="367" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1006014</v>
       </c>
@@ -40259,13 +40808,17 @@
         <v>47</v>
       </c>
       <c r="AJ367">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK367" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="AL367">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1006015</v>
       </c>
@@ -40377,8 +40930,12 @@
       <c r="AK368" t="s">
         <v>49</v>
       </c>
+      <c r="AL368">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="369" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1006016</v>
       </c>
@@ -40490,8 +41047,12 @@
       <c r="AK369" t="s">
         <v>51</v>
       </c>
+      <c r="AL369">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="370" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1006017</v>
       </c>
@@ -40603,8 +41164,12 @@
       <c r="AK370" t="s">
         <v>53</v>
       </c>
+      <c r="AL370">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="371" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1006018</v>
       </c>
@@ -40711,13 +41276,17 @@
         <v>56</v>
       </c>
       <c r="AJ371">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK371" t="s">
-        <v>46</v>
+        <v>56</v>
+      </c>
+      <c r="AL371">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1006019</v>
       </c>
@@ -40829,8 +41398,12 @@
       <c r="AK372" t="s">
         <v>49</v>
       </c>
+      <c r="AL372">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="373" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1006020</v>
       </c>
@@ -40942,8 +41515,12 @@
       <c r="AK373" t="s">
         <v>48</v>
       </c>
+      <c r="AL373">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="374" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1006021</v>
       </c>
@@ -41055,8 +41632,12 @@
       <c r="AK374" t="s">
         <v>40</v>
       </c>
+      <c r="AL374">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="375" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1006022</v>
       </c>
@@ -41168,8 +41749,12 @@
       <c r="AK375" t="s">
         <v>53</v>
       </c>
+      <c r="AL375">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="376" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1006023</v>
       </c>
@@ -41281,8 +41866,12 @@
       <c r="AK376" t="s">
         <v>52</v>
       </c>
+      <c r="AL376">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="377" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1006024</v>
       </c>
@@ -41389,13 +41978,17 @@
         <v>55</v>
       </c>
       <c r="AJ377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK377" t="s">
-        <v>44</v>
+        <v>55</v>
+      </c>
+      <c r="AL377">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1006025</v>
       </c>
@@ -41507,8 +42100,12 @@
       <c r="AK378" t="s">
         <v>54</v>
       </c>
+      <c r="AL378">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="379" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1006026</v>
       </c>
@@ -41615,13 +42212,17 @@
         <v>43</v>
       </c>
       <c r="AJ379">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK379" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="AL379">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1006027</v>
       </c>
@@ -41733,8 +42334,12 @@
       <c r="AK380" t="s">
         <v>46</v>
       </c>
+      <c r="AL380">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="381" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1006028</v>
       </c>
@@ -41846,9 +42451,14 @@
       <c r="AK381" t="s">
         <v>42</v>
       </c>
+      <c r="AL381">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK381" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AL381" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>